--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B99883-C6C0-4D3D-92DE-6DF5DB4363E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718AED03-9C6D-42E5-9687-E3895CB5D3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>스칼렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샬럿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,15 +622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,37 +642,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -660,38 +685,41 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="I2">
-        <f>$H2*10</f>
-        <v>200</v>
-      </c>
       <c r="J2">
-        <f>$H2*5</f>
+        <f>$I2*10</f>
+        <v>200</v>
+      </c>
+      <c r="K2">
+        <f>$I2*5</f>
         <v>100</v>
       </c>
-      <c r="K2">
-        <f>$H2*5</f>
+      <c r="L2">
+        <f>$I2*5</f>
         <v>100</v>
       </c>
-      <c r="L2">
-        <v>200</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>200</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -701,38 +729,41 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I31" si="0">$H3*10</f>
-        <v>200</v>
-      </c>
       <c r="J3">
-        <f t="shared" ref="J3:K18" si="1">$H3*5</f>
+        <f t="shared" ref="J3:J31" si="0">$I3*10</f>
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:L18" si="1">$I3*5</f>
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L3">
-        <v>200</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>200</v>
+      </c>
+      <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -742,38 +773,41 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>74</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
       <c r="J4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L4">
-        <v>200</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -781,40 +815,43 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
       <c r="J5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L5">
-        <v>200</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>200</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -822,40 +859,43 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
       <c r="J6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L6">
-        <v>200</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>200</v>
+      </c>
+      <c r="N6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -863,40 +903,43 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
       <c r="J7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L7">
-        <v>200</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>200</v>
+      </c>
+      <c r="N7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -906,38 +949,41 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>25</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="L8">
-        <v>200</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>200</v>
+      </c>
+      <c r="N8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -947,38 +993,41 @@
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>25</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="L9">
-        <v>200</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -988,38 +1037,41 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>25</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="L10">
-        <v>200</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1029,38 +1081,41 @@
       <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>25</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="L11">
-        <v>200</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>200</v>
+      </c>
+      <c r="N11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -1070,38 +1125,41 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="L12">
-        <v>200</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>200</v>
+      </c>
+      <c r="N12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -1111,38 +1169,41 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>25</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="L13">
-        <v>200</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>200</v>
+      </c>
+      <c r="N13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3</v>
       </c>
@@ -1152,38 +1213,41 @@
       <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="E14" t="s">
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="L14">
-        <v>200</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>200</v>
+      </c>
+      <c r="N14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1193,38 +1257,41 @@
       <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>74</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>30</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="L15">
-        <v>200</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>200</v>
+      </c>
+      <c r="N15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -1234,38 +1301,41 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" t="s">
+        <v>74</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>30</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="L16">
-        <v>200</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>200</v>
+      </c>
+      <c r="N16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3</v>
       </c>
@@ -1275,38 +1345,41 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" t="s">
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>30</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="L17">
-        <v>200</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>200</v>
+      </c>
+      <c r="N17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>3</v>
       </c>
@@ -1316,38 +1389,41 @@
       <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>78</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>30</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="L18">
-        <v>200</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>3</v>
       </c>
@@ -1357,38 +1433,41 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>78</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J19">
-        <f t="shared" ref="J19:K31" si="2">$H19*5</f>
+      <c r="K19">
+        <f t="shared" ref="K19:L31" si="2">$I19*5</f>
         <v>150</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="L19">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>200</v>
+      </c>
+      <c r="N19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>4</v>
       </c>
@@ -1398,38 +1477,41 @@
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>74</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>40</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
       <c r="K20">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="L20">
-        <v>200</v>
-      </c>
-      <c r="M20" t="s">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="M20">
+        <v>200</v>
+      </c>
+      <c r="N20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>4</v>
       </c>
@@ -1439,38 +1521,41 @@
       <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>74</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>40</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
       <c r="K21">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="L21">
-        <v>200</v>
-      </c>
-      <c r="M21" t="s">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="M21">
+        <v>200</v>
+      </c>
+      <c r="N21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>4</v>
       </c>
@@ -1480,38 +1565,41 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>74</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>40</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
       <c r="K22">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="L22">
-        <v>200</v>
-      </c>
-      <c r="M22" t="s">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="M22">
+        <v>200</v>
+      </c>
+      <c r="N22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4</v>
       </c>
@@ -1521,38 +1609,41 @@
       <c r="D23" t="s">
         <v>65</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" t="s">
+        <v>78</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>40</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
       <c r="K23">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="L23">
-        <v>200</v>
-      </c>
-      <c r="M23" t="s">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="M23">
+        <v>200</v>
+      </c>
+      <c r="N23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1562,38 +1653,41 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>78</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>40</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
       <c r="K24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="L24">
-        <v>200</v>
-      </c>
-      <c r="M24" t="s">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="M24">
+        <v>200</v>
+      </c>
+      <c r="N24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -1603,38 +1697,41 @@
       <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>78</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>40</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
       <c r="K25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="L25">
-        <v>200</v>
-      </c>
-      <c r="M25" t="s">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="M25">
+        <v>200</v>
+      </c>
+      <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1644,38 +1741,41 @@
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>50</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="L26">
-        <v>200</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>200</v>
+      </c>
+      <c r="N26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
@@ -1685,38 +1785,41 @@
       <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>74</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>50</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="L27">
-        <v>200</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>200</v>
+      </c>
+      <c r="N27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>5</v>
       </c>
@@ -1726,38 +1829,41 @@
       <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>74</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>50</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="L28">
-        <v>200</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>200</v>
+      </c>
+      <c r="N28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>5</v>
       </c>
@@ -1767,38 +1873,41 @@
       <c r="D29" t="s">
         <v>70</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>78</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>50</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="L29">
-        <v>200</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>200</v>
+      </c>
+      <c r="N29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1808,38 +1917,41 @@
       <c r="D30" t="s">
         <v>71</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>78</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>50</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="L30">
-        <v>200</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>200</v>
+      </c>
+      <c r="N30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
@@ -1849,34 +1961,37 @@
       <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" t="s">
+        <v>78</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>50</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="L31">
-        <v>200</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>200</v>
+      </c>
+      <c r="N31" t="s">
         <v>49</v>
       </c>
     </row>

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718AED03-9C6D-42E5-9687-E3895CB5D3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71EB48A-2373-4ADB-9DF8-37EE6370530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -297,6 +297,14 @@
   </si>
   <si>
     <t>female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 효과 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,13 +630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +684,11 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -701,16 +714,16 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <f>$I2*10</f>
-        <v>200</v>
+        <f>($F2*200)*($I2/100+1)</f>
+        <v>240</v>
       </c>
       <c r="K2">
-        <f>$I2*5</f>
-        <v>100</v>
+        <f>($F2*100)*($I2/100+1)</f>
+        <v>120</v>
       </c>
       <c r="L2">
-        <f>$I2*5</f>
-        <v>100</v>
+        <f>($F2*100)*($I2/100+1)</f>
+        <v>120</v>
       </c>
       <c r="M2">
         <v>200</v>
@@ -718,8 +731,11 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -745,16 +761,16 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="0">$I3*10</f>
-        <v>200</v>
+        <f t="shared" ref="J3:J31" si="0">($F3*200)*($I3/100+1)</f>
+        <v>240</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:L18" si="1">$I3*5</f>
-        <v>100</v>
+        <f t="shared" ref="K3:L31" si="1">($F3*100)*($I3/100+1)</f>
+        <v>120</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M3">
         <v>200</v>
@@ -762,8 +778,11 @@
       <c r="N3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -790,15 +809,15 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>200</v>
@@ -806,8 +825,11 @@
       <c r="N4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -834,15 +856,15 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>200</v>
@@ -850,8 +872,11 @@
       <c r="N5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -878,15 +903,15 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M6">
         <v>200</v>
@@ -894,8 +919,11 @@
       <c r="N6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -922,15 +950,15 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M7">
         <v>200</v>
@@ -938,8 +966,11 @@
       <c r="N7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -982,8 +1013,11 @@
       <c r="N8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1026,8 +1060,11 @@
       <c r="N9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -1070,8 +1107,11 @@
       <c r="N10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1114,8 +1154,11 @@
       <c r="N11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -1158,8 +1201,11 @@
       <c r="N12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="N13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3</v>
       </c>
@@ -1230,15 +1279,15 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M14">
         <v>200</v>
@@ -1246,8 +1295,11 @@
       <c r="N14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1274,15 +1326,15 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M15">
         <v>200</v>
@@ -1290,8 +1342,11 @@
       <c r="N15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -1318,15 +1373,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M16">
         <v>200</v>
@@ -1334,8 +1389,11 @@
       <c r="N16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3</v>
       </c>
@@ -1362,15 +1420,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M17">
         <v>200</v>
@@ -1378,8 +1436,11 @@
       <c r="N17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>3</v>
       </c>
@@ -1406,15 +1467,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M18">
         <v>200</v>
@@ -1422,8 +1483,11 @@
       <c r="N18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>3</v>
       </c>
@@ -1450,15 +1514,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:L31" si="2">$I19*5</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>130</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>130</v>
       </c>
       <c r="M19">
         <v>200</v>
@@ -1466,8 +1530,11 @@
       <c r="N19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>4</v>
       </c>
@@ -1494,15 +1561,15 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="M20">
         <v>200</v>
@@ -1510,8 +1577,11 @@
       <c r="N20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>4</v>
       </c>
@@ -1538,15 +1608,15 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="M21">
         <v>200</v>
@@ -1554,8 +1624,11 @@
       <c r="N21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>4</v>
       </c>
@@ -1582,15 +1655,15 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="M22">
         <v>200</v>
@@ -1598,8 +1671,11 @@
       <c r="N22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4</v>
       </c>
@@ -1626,15 +1702,15 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="M23">
         <v>200</v>
@@ -1642,8 +1718,11 @@
       <c r="N23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1670,15 +1749,15 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="M24">
         <v>200</v>
@@ -1686,8 +1765,11 @@
       <c r="N24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -1714,15 +1796,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="M25">
         <v>200</v>
@@ -1730,8 +1812,11 @@
       <c r="N25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1758,15 +1843,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M26">
         <v>200</v>
@@ -1774,8 +1859,11 @@
       <c r="N26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
@@ -1802,15 +1890,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M27">
         <v>200</v>
@@ -1818,8 +1906,11 @@
       <c r="N27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>5</v>
       </c>
@@ -1846,15 +1937,15 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M28">
         <v>200</v>
@@ -1862,8 +1953,11 @@
       <c r="N28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>5</v>
       </c>
@@ -1890,15 +1984,15 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M29">
         <v>200</v>
@@ -1906,8 +2000,11 @@
       <c r="N29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1934,15 +2031,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M30">
         <v>200</v>
@@ -1950,8 +2047,11 @@
       <c r="N30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
@@ -1978,21 +2078,24 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M31">
         <v>200</v>
       </c>
       <c r="N31" t="s">
         <v>49</v>
+      </c>
+      <c r="P31" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71EB48A-2373-4ADB-9DF8-37EE6370530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9ED0C5-3069-416B-8550-653867F717CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,9 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -714,15 +712,15 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <f>($F2*200)*($I2/100+1)</f>
+        <f>($F2*200)*($I2/100+1)+($B2-1)*200</f>
         <v>240</v>
       </c>
       <c r="K2">
-        <f>($F2*100)*($I2/100+1)</f>
+        <f>($F2*100)*($I2/100+1)+($B2-1)*100</f>
         <v>120</v>
       </c>
       <c r="L2">
-        <f>($F2*100)*($I2/100+1)</f>
+        <f>($F2*100)*($I2/100+1)+($B2-1)*100</f>
         <v>120</v>
       </c>
       <c r="M2">
@@ -761,11 +759,11 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="0">($F3*200)*($I3/100+1)</f>
+        <f t="shared" ref="J3:J31" si="0">($F3*200)*($I3/100+1)+($B3-1)*200</f>
         <v>240</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:L31" si="1">($F3*100)*($I3/100+1)</f>
+        <f t="shared" ref="K3:L31" si="1">($F3*100)*($I3/100+1)+($B3-1)*100</f>
         <v>120</v>
       </c>
       <c r="L3">
@@ -997,15 +995,15 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="M8">
         <v>200</v>
@@ -1044,15 +1042,15 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="M9">
         <v>200</v>
@@ -1091,15 +1089,15 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="M10">
         <v>200</v>
@@ -1138,15 +1136,15 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="M11">
         <v>200</v>
@@ -1185,15 +1183,15 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="M12">
         <v>200</v>
@@ -1232,15 +1230,15 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="M13">
         <v>200</v>
@@ -1279,15 +1277,15 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="M14">
         <v>200</v>
@@ -1326,15 +1324,15 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="M15">
         <v>200</v>
@@ -1373,15 +1371,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="M16">
         <v>200</v>
@@ -1420,15 +1418,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="M17">
         <v>200</v>
@@ -1467,15 +1465,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="M18">
         <v>200</v>
@@ -1514,15 +1512,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="M19">
         <v>200</v>
@@ -1561,15 +1559,15 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="M20">
         <v>200</v>
@@ -1608,15 +1606,15 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="M21">
         <v>200</v>
@@ -1655,15 +1653,15 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="M22">
         <v>200</v>
@@ -1702,15 +1700,15 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="M23">
         <v>200</v>
@@ -1749,15 +1747,15 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="M24">
         <v>200</v>
@@ -1796,15 +1794,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="M25">
         <v>200</v>
@@ -1843,15 +1841,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="M26">
         <v>200</v>
@@ -1890,15 +1888,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="M27">
         <v>200</v>
@@ -1937,15 +1935,15 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="M28">
         <v>200</v>
@@ -1984,15 +1982,15 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="M29">
         <v>200</v>
@@ -2031,15 +2029,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="M30">
         <v>200</v>
@@ -2078,15 +2076,15 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="M31">
         <v>200</v>

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9ED0C5-3069-416B-8550-653867F717CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE0E99-EE2B-439C-B2D7-083568A01DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -305,6 +305,430 @@
   </si>
   <si>
     <t>특수 효과 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼균-요리토모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립자-요리토모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통치자-요리토모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minamoto no Yoritomo1</t>
+  </si>
+  <si>
+    <t>Minamoto no Yoritomo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minamoto no Yoritomo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후계자-라지야 술탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개혁자-라지야 술탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도자-라지야 술탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raziya Sultan1</t>
+  </si>
+  <si>
+    <t>Raziya Sultan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raziya Sultan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창제자-람캄행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의-람캄행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위대한 왕-람캄행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramkhamhaeng1</t>
+  </si>
+  <si>
+    <t>Ramkhamhaeng2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramkhamhaeng3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정치가-당태종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도자-당태종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제-당태종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shimin1</t>
+  </si>
+  <si>
+    <t>Li Shimin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shimin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인-잔다르크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도자-잔다르크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 계시-잔다르크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joan of Arc1</t>
+  </si>
+  <si>
+    <t>Joan of Arc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joan of Arc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boudica1</t>
+  </si>
+  <si>
+    <t>Boudica2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boudica3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반란자-보우디카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투쟁의 상징-보우디카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유-보우디카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isabella1</t>
+  </si>
+  <si>
+    <t>Isabella2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isabella3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합-이사벨라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개혁자-이사벨라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카톨릭 군주-이사벨라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alexander the Great1</t>
+  </si>
+  <si>
+    <t>Alexander the Great2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alexander the Great3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕-알렉산더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정복자-알렉산더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제-알렉산더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yue Fei2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yue Fei1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yue Fei3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장군-악비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리자-악비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충성-악비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subutai1</t>
+  </si>
+  <si>
+    <t>Subutai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subutai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유목민-수부타이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정-수부타이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략의 천재-수부타이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semiramis1</t>
+  </si>
+  <si>
+    <t>Semiramis2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semiramis3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신화-세미라미스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건축가-세미라미스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕비-세미라미스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tamar the Great1</t>
+  </si>
+  <si>
+    <t>Tamar the Great2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tamar the Great3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통치자-타마르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정복자-타마르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜로운 여왕-타마르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 110% 데미지를 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 120% 데미지를 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 시 아군의 공격력 및 방어력 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 시 아군의 공격력 및 방어력 8% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 시 아군의 공격력 및 방어력 12% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 140% 데미지를 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 공격력이 가장 높은 적을 우선적으로 공격(100% 데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 공격력이 가장 높은 적을 우선적으로 공격(110% 데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 공격력이 가장 높은 적을 우선적으로 공격(120% 데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 방어력이 가장 높은 적을 우선적으로 공격(120% 데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 방어력이 가장 높은 적을 우선적으로 공격(135% 데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 방어력이 가장 높은 적을 우선적으로 공격(150% 데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%의 데미지로 2회 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60%의 데미지로 2회 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70%의 데미지로 2회 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 타겟의 맨 뒷줄의 영웅을 110% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 타겟의 맨 뒷줄의 영웅을 120% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 타겟의 맨 뒷줄의 영웅을 130% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 공격 시 마다 자기 자신에게 공격력 +5% 버프 적용(최대 5회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 공격 시 마다 자기 자신에게 공격력 +7% 버프 적용(최대 5회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 공격 시 마다 자기 자신에게 공격력 +10% 버프 적용(최대 5회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 140% 데미지를 입힘
+신대륙 발견 : 아군의 사기를 올려 전투 종료 시 까지 아군의 공격력 및 방어력 3% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 160% 데미지를 입힘
+신대륙 발견 : 아군의 사기를 올려 전투 종료 시 까지 아군의 공격력 및 방어력 4% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 180% 데미지를 입힘
+신대륙 발견 : 아군의 사기를 올려 전투 종료 시 까지 아군의 공격력 및 방어력 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 공격 시 마다 자기 자신에게 공격력 +3% 방어력 +3% 버프 적용(최대 5회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 공격 시 마다 자기 자신에게 공격력 +4% 방어력 +4% 버프 적용(최대 5회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 공격 시 마다 자기 자신에게 공격력 +6% 방어력 +6% 버프 적용(최대 5회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 받는 데미지 15% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 받는 데미지 25% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 받는 데미지 40% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 랜덤한 두명의 적에게 60% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 랜덤한 두명의 적에게 70% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 랜덤한 두명의 적에게 80% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 타겟의 공격력이 자신의 공격력 보다 높을 경우 120% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 타겟의 공격력이 자신의 공격력 보다 높을 경우 140% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 타겟의 공격력이 자신의 공격력 보다 높을 경우 160% 데미지로 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,8 +772,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -630,11 +1055,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -682,7 +1112,7 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -729,7 +1159,7 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -759,11 +1189,11 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="0">($F3*200)*($I3/100+1)+($B3-1)*200</f>
+        <f t="shared" ref="J3:J66" si="0">($F3*200)*($I3/100+1)+($B3-1)*200</f>
         <v>240</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:L31" si="1">($F3*100)*($I3/100+1)+($B3-1)*100</f>
+        <f t="shared" ref="K3:L35" si="1">($F3*100)*($I3/100+1)+($B3-1)*100</f>
         <v>120</v>
       </c>
       <c r="L3">
@@ -776,7 +1206,7 @@
       <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -823,7 +1253,7 @@
       <c r="N4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -870,7 +1300,7 @@
       <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -917,7 +1347,7 @@
       <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -964,7 +1394,7 @@
       <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1011,7 +1441,7 @@
       <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1058,7 +1488,7 @@
       <c r="N9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1105,7 +1535,7 @@
       <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1152,7 +1582,7 @@
       <c r="N11" t="s">
         <v>29</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1199,7 +1629,7 @@
       <c r="N12" t="s">
         <v>30</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1246,7 +1676,7 @@
       <c r="N13" t="s">
         <v>31</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1293,7 +1723,7 @@
       <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1340,7 +1770,7 @@
       <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1387,7 +1817,7 @@
       <c r="N16" t="s">
         <v>34</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1434,7 +1864,7 @@
       <c r="N17" t="s">
         <v>35</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1481,7 +1911,7 @@
       <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1528,7 +1958,7 @@
       <c r="N19" t="s">
         <v>37</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1575,7 +2005,7 @@
       <c r="N20" t="s">
         <v>38</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1622,7 +2052,7 @@
       <c r="N21" t="s">
         <v>39</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1669,7 +2099,7 @@
       <c r="N22" t="s">
         <v>40</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1716,7 +2146,7 @@
       <c r="N23" t="s">
         <v>41</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1763,7 +2193,7 @@
       <c r="N24" t="s">
         <v>42</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1810,7 +2240,7 @@
       <c r="N25" t="s">
         <v>43</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1857,7 +2287,7 @@
       <c r="N26" t="s">
         <v>44</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1904,7 +2334,7 @@
       <c r="N27" t="s">
         <v>45</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1951,7 +2381,7 @@
       <c r="N28" t="s">
         <v>46</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1998,7 +2428,7 @@
       <c r="N29" t="s">
         <v>47</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2045,7 +2475,7 @@
       <c r="N30" t="s">
         <v>48</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2092,8 +2522,1700 @@
       <c r="N31" t="s">
         <v>49</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="1" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="M32">
+        <v>200</v>
+      </c>
+      <c r="N32" t="s">
+        <v>84</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="M33">
+        <v>200</v>
+      </c>
+      <c r="N33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:L34" si="2">($F34*100)*($I34/100+1)+($B34-1)*100</f>
+        <v>660</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+      <c r="M34">
+        <v>200</v>
+      </c>
+      <c r="N34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="M35">
+        <v>200</v>
+      </c>
+      <c r="N35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:L53" si="3">($F36*100)*($I36/100+1)+($B36-1)*100</f>
+        <v>550</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="M36">
+        <v>200</v>
+      </c>
+      <c r="N36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>60</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="M37">
+        <v>200</v>
+      </c>
+      <c r="N37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>40</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="M38">
+        <v>200</v>
+      </c>
+      <c r="N38" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="M39">
+        <v>200</v>
+      </c>
+      <c r="N39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="M40">
+        <v>200</v>
+      </c>
+      <c r="N40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="M41">
+        <v>200</v>
+      </c>
+      <c r="N41" t="s">
+        <v>102</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="M42">
+        <v>200</v>
+      </c>
+      <c r="N42" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="M43">
+        <v>200</v>
+      </c>
+      <c r="N43" t="s">
+        <v>104</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>40</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="M44">
+        <v>200</v>
+      </c>
+      <c r="N44" t="s">
+        <v>108</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="M45">
+        <v>200</v>
+      </c>
+      <c r="N45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="M46">
+        <v>200</v>
+      </c>
+      <c r="N46" t="s">
+        <v>110</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>40</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="M47">
+        <v>200</v>
+      </c>
+      <c r="N47" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>50</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="M48">
+        <v>200</v>
+      </c>
+      <c r="N48" t="s">
+        <v>112</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="M49">
+        <v>200</v>
+      </c>
+      <c r="N49" t="s">
+        <v>113</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>40</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="M50">
+        <v>200</v>
+      </c>
+      <c r="N50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="M51">
+        <v>200</v>
+      </c>
+      <c r="N51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>60</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:L52" si="4">($F52*100)*($I52/100+1)+($B52-1)*100</f>
+        <v>660</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>660</v>
+      </c>
+      <c r="M52">
+        <v>200</v>
+      </c>
+      <c r="N52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>40</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="M53">
+        <v>200</v>
+      </c>
+      <c r="N53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54:L67" si="5">($F54*100)*($I54/100+1)+($B54-1)*100</f>
+        <v>550</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="M54">
+        <v>200</v>
+      </c>
+      <c r="N54" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="M55">
+        <v>200</v>
+      </c>
+      <c r="N55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>40</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="M56">
+        <v>200</v>
+      </c>
+      <c r="N56" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>50</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="M57">
+        <v>200</v>
+      </c>
+      <c r="N57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>60</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="M58">
+        <v>200</v>
+      </c>
+      <c r="N58" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>40</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="M59">
+        <v>200</v>
+      </c>
+      <c r="N59" t="s">
+        <v>135</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>50</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="M60">
+        <v>200</v>
+      </c>
+      <c r="N60" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="M61">
+        <v>200</v>
+      </c>
+      <c r="N61" t="s">
+        <v>137</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>40</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="M62">
+        <v>200</v>
+      </c>
+      <c r="N62" t="s">
+        <v>141</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="M63">
+        <v>200</v>
+      </c>
+      <c r="N63" t="s">
+        <v>142</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>60</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="M64">
+        <v>200</v>
+      </c>
+      <c r="N64" t="s">
+        <v>143</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>40</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="M65">
+        <v>200</v>
+      </c>
+      <c r="N65" t="s">
+        <v>147</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>50</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="M66">
+        <v>200</v>
+      </c>
+      <c r="N66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>60</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67" si="6">($F67*200)*($I67/100+1)+($B67-1)*200</f>
+        <v>1320</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="M67">
+        <v>200</v>
+      </c>
+      <c r="N67" t="s">
+        <v>149</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE0E99-EE2B-439C-B2D7-083568A01DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63435FA-6071-4AEF-8F59-CB097DD27606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="191">
   <si>
     <t>id</t>
   </si>
@@ -730,6 +730,13 @@
   <si>
     <t>공격 시 타겟의 공격력이 자신의 공격력 보다 높을 경우 160% 데미지로 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
   </si>
 </sst>
 </file>
@@ -772,9 +779,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1055,3166 +1061,3568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>20</v>
       </c>
-      <c r="J2">
-        <f>($F2*200)*($I2/100+1)+($B2-1)*200</f>
+      <c r="L2">
+        <f>($H2*200)*($K2/100+1)+($C2-1)*200</f>
         <v>240</v>
       </c>
-      <c r="K2">
-        <f>($F2*100)*($I2/100+1)+($B2-1)*100</f>
+      <c r="M2">
+        <f>($H2*100)*($K2/100+1)+($C2-1)*100</f>
         <v>120</v>
       </c>
-      <c r="L2">
-        <f>($F2*100)*($I2/100+1)+($B2-1)*100</f>
+      <c r="N2">
+        <f>($H2*100)*($K2/100+1)+($C2-1)*100</f>
         <v>120</v>
       </c>
-      <c r="M2">
-        <v>200</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2">
+        <v>200</v>
+      </c>
+      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">($F3*200)*($I3/100+1)+($B3-1)*200</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">($H3*200)*($K3/100+1)+($C3-1)*200</f>
         <v>240</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:L35" si="1">($F3*100)*($I3/100+1)+($B3-1)*100</f>
+      <c r="M3">
+        <f t="shared" ref="M3:N35" si="1">($H3*100)*($K3/100+1)+($C3-1)*100</f>
         <v>120</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M3">
-        <v>200</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M4">
-        <v>200</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M5">
-        <v>200</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5">
+        <v>200</v>
+      </c>
+      <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>78</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M6">
-        <v>200</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>78</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M7">
-        <v>200</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>74</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="M8">
-        <v>200</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8">
+        <v>200</v>
+      </c>
+      <c r="P8" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>74</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>25</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="M9">
-        <v>200</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9">
+        <v>200</v>
+      </c>
+      <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>74</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>25</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="M10">
-        <v>200</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="R10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>25</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="M11">
-        <v>200</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="P11" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="R11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>78</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>25</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="M12">
-        <v>200</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>25</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="M13">
-        <v>200</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13">
+        <v>200</v>
+      </c>
+      <c r="P13" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="R13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>30</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M14">
-        <v>200</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="P14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>74</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>30</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M15">
-        <v>200</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="R15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>74</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>30</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M16">
-        <v>200</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="O16">
+        <v>200</v>
+      </c>
+      <c r="P16" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="R16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>78</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>30</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M17">
-        <v>200</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="R17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>78</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>30</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M18">
-        <v>200</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="R18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>78</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>30</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M19">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="R19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>74</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>40</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M20">
-        <v>200</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="R20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>74</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>40</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M21">
-        <v>200</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21">
+        <v>200</v>
+      </c>
+      <c r="P21" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="R21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>74</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>40</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M22">
-        <v>200</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="R22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>78</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>40</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M23">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23">
+        <v>200</v>
+      </c>
+      <c r="P23" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="R23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>78</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>40</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M24">
-        <v>200</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="O24">
+        <v>200</v>
+      </c>
+      <c r="P24" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="R24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>78</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>40</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M25">
-        <v>200</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25">
+        <v>200</v>
+      </c>
+      <c r="P25" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="R25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
         <v>5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>74</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>50</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M26">
-        <v>200</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26">
+        <v>200</v>
+      </c>
+      <c r="P26" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="R26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>69</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>74</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>50</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M27">
-        <v>200</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27">
+        <v>200</v>
+      </c>
+      <c r="P27" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="R27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>74</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>50</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M28">
-        <v>200</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="O28">
+        <v>200</v>
+      </c>
+      <c r="P28" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="R28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>78</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>50</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M29">
-        <v>200</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="O29">
+        <v>200</v>
+      </c>
+      <c r="P29" t="s">
         <v>47</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="R29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>71</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>78</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>50</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M30">
-        <v>200</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="O30">
+        <v>200</v>
+      </c>
+      <c r="P30" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="R30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>72</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>78</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>50</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M31">
-        <v>200</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="O31">
+        <v>200</v>
+      </c>
+      <c r="P31" t="s">
         <v>49</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="R31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>40</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M32">
-        <v>200</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="O32">
+        <v>200</v>
+      </c>
+      <c r="P32" t="s">
         <v>84</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="R32" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>81</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>74</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>50</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M33">
-        <v>200</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="O33">
+        <v>200</v>
+      </c>
+      <c r="P33" t="s">
         <v>85</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="R33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>83</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>74</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>60</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K34">
-        <f t="shared" ref="K34:L34" si="2">($F34*100)*($I34/100+1)+($B34-1)*100</f>
+      <c r="M34">
+        <f t="shared" ref="M34:N34" si="2">($H34*100)*($K34/100+1)+($C34-1)*100</f>
         <v>660</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="M34">
-        <v>200</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="O34">
+        <v>200</v>
+      </c>
+      <c r="P34" t="s">
         <v>86</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="R34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>87</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>78</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>40</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="M35">
-        <v>200</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="O35">
+        <v>200</v>
+      </c>
+      <c r="P35" t="s">
         <v>90</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="R35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>88</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>78</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>50</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K36">
-        <f t="shared" ref="K36:L53" si="3">($F36*100)*($I36/100+1)+($B36-1)*100</f>
+      <c r="M36">
+        <f t="shared" ref="M36:N53" si="3">($H36*100)*($K36/100+1)+($C36-1)*100</f>
         <v>550</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="M36">
-        <v>200</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="O36">
+        <v>200</v>
+      </c>
+      <c r="P36" t="s">
         <v>91</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="R36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>89</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>78</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>60</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="M37">
-        <v>200</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="O37">
+        <v>200</v>
+      </c>
+      <c r="P37" t="s">
         <v>92</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="R37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>93</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>74</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>40</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="M38">
-        <v>200</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="O38">
+        <v>200</v>
+      </c>
+      <c r="P38" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="R38" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>94</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>74</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>50</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="M39">
-        <v>200</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="O39">
+        <v>200</v>
+      </c>
+      <c r="P39" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="R39" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
         <v>6</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>95</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>74</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>60</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="M40">
-        <v>200</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="O40">
+        <v>200</v>
+      </c>
+      <c r="P40" t="s">
         <v>98</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="R40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>99</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>74</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>40</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="M41">
-        <v>200</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="O41">
+        <v>200</v>
+      </c>
+      <c r="P41" t="s">
         <v>102</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="R41" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>100</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>74</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>50</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="M42">
-        <v>200</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="O42">
+        <v>200</v>
+      </c>
+      <c r="P42" t="s">
         <v>103</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="R42" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>101</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>74</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>60</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="M43">
-        <v>200</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="O43">
+        <v>200</v>
+      </c>
+      <c r="P43" t="s">
         <v>104</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="R43" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>17</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>105</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>78</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>40</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="M44">
-        <v>200</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="O44">
+        <v>200</v>
+      </c>
+      <c r="P44" t="s">
         <v>108</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="R44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>106</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>78</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>50</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="M45">
-        <v>200</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="O45">
+        <v>200</v>
+      </c>
+      <c r="P45" t="s">
         <v>109</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="R45" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>107</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>78</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>60</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="M46">
-        <v>200</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="O46">
+        <v>200</v>
+      </c>
+      <c r="P46" t="s">
         <v>110</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="R46" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>114</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>78</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>40</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="M47">
-        <v>200</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="O47">
+        <v>200</v>
+      </c>
+      <c r="P47" t="s">
         <v>111</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="R47" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
         <v>5</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
         <v>18</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>116</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>78</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>50</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="M48">
-        <v>200</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="O48">
+        <v>200</v>
+      </c>
+      <c r="P48" t="s">
         <v>112</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="R48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>6</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>115</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>78</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>60</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <f t="shared" si="3"/>
         <v>660</v>
       </c>
-      <c r="M49">
-        <v>200</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="O49">
+        <v>200</v>
+      </c>
+      <c r="P49" t="s">
         <v>113</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="R49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
         <v>4</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>120</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>78</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>40</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="M50">
-        <v>200</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="O50">
+        <v>200</v>
+      </c>
+      <c r="P50" t="s">
         <v>117</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="R50" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>121</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>78</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>50</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="M51">
-        <v>200</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="O51">
+        <v>200</v>
+      </c>
+      <c r="P51" t="s">
         <v>118</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="R51" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>122</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>78</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>60</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K52">
-        <f t="shared" ref="K52:L52" si="4">($F52*100)*($I52/100+1)+($B52-1)*100</f>
+      <c r="M52">
+        <f t="shared" ref="M52:N52" si="4">($H52*100)*($K52/100+1)+($C52-1)*100</f>
         <v>660</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <f t="shared" si="4"/>
         <v>660</v>
       </c>
-      <c r="M52">
-        <v>200</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="O52">
+        <v>200</v>
+      </c>
+      <c r="P52" t="s">
         <v>119</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="R52" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
         <v>4</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>126</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>74</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>40</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="M53">
-        <v>200</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="O53">
+        <v>200</v>
+      </c>
+      <c r="P53" t="s">
         <v>123</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="R53" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
         <v>5</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
         <v>18</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>127</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>74</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>50</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K54">
-        <f t="shared" ref="K54:L67" si="5">($F54*100)*($I54/100+1)+($B54-1)*100</f>
+      <c r="M54">
+        <f t="shared" ref="M54:N67" si="5">($H54*100)*($K54/100+1)+($C54-1)*100</f>
         <v>550</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="M54">
-        <v>200</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="O54">
+        <v>200</v>
+      </c>
+      <c r="P54" t="s">
         <v>124</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="R54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
         <v>18</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>128</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>74</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>60</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="M55">
-        <v>200</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="O55">
+        <v>200</v>
+      </c>
+      <c r="P55" t="s">
         <v>125</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="R55" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>17</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>132</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>74</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>40</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="M56">
-        <v>200</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="O56">
+        <v>200</v>
+      </c>
+      <c r="P56" t="s">
         <v>130</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="R56" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
         <v>5</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
         <v>17</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>133</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>74</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>50</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="M57">
-        <v>200</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="O57">
+        <v>200</v>
+      </c>
+      <c r="P57" t="s">
         <v>129</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="R57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
         <v>6</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
         <v>17</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>134</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>74</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <v>60</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="M58">
-        <v>200</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="O58">
+        <v>200</v>
+      </c>
+      <c r="P58" t="s">
         <v>131</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="R58" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
         <v>4</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>138</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>74</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>40</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="M59">
-        <v>200</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="O59">
+        <v>200</v>
+      </c>
+      <c r="P59" t="s">
         <v>135</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="R59" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
         <v>17</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>139</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>74</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>50</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="M60">
-        <v>200</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="O60">
+        <v>200</v>
+      </c>
+      <c r="P60" t="s">
         <v>136</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="R60" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>140</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>74</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <v>60</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="M61">
-        <v>200</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="O61">
+        <v>200</v>
+      </c>
+      <c r="P61" t="s">
         <v>137</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="R61" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>145</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>78</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <v>40</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="M62">
-        <v>200</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="O62">
+        <v>200</v>
+      </c>
+      <c r="P62" t="s">
         <v>141</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="R62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>146</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>78</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>50</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="M63">
-        <v>200</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="O63">
+        <v>200</v>
+      </c>
+      <c r="P63" t="s">
         <v>142</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="R63" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>144</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>78</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <v>60</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="M64">
-        <v>200</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="O64">
+        <v>200</v>
+      </c>
+      <c r="P64" t="s">
         <v>143</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="R64" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>18</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>150</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>78</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <v>40</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="M65">
-        <v>200</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="O65">
+        <v>200</v>
+      </c>
+      <c r="P65" t="s">
         <v>147</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="R65" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>151</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>78</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <v>50</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="M66">
-        <v>200</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="O66">
+        <v>200</v>
+      </c>
+      <c r="P66" t="s">
         <v>148</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="R66" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
         <v>6</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
         <v>18</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
         <v>152</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>78</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
         <v>60</v>
       </c>
-      <c r="J67">
-        <f t="shared" ref="J67" si="6">($F67*200)*($I67/100+1)+($B67-1)*200</f>
+      <c r="L67">
+        <f t="shared" ref="L67" si="6">($H67*200)*($K67/100+1)+($C67-1)*200</f>
         <v>1320</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="M67">
-        <v>200</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="O67">
+        <v>200</v>
+      </c>
+      <c r="P67" t="s">
         <v>149</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="R67" t="s">
         <v>170</v>
       </c>
     </row>

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63435FA-6071-4AEF-8F59-CB097DD27606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89271DF0-2BD2-4E35-8021-C42DBF33DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="190">
   <si>
     <t>id</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>hp</t>
-  </si>
-  <si>
-    <t>lead</t>
   </si>
   <si>
     <t>spriteName</t>
@@ -1061,29 +1058,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>190</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1092,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1122,30 +1121,27 @@
         <v>12</v>
       </c>
       <c r="Q1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1160,45 +1156,42 @@
         <v>20</v>
       </c>
       <c r="L2">
-        <f>($H2*200)*($K2/100+1)+($C2-1)*200</f>
-        <v>240</v>
+        <f>($H2*100+$P2)*($K2/100+1)*(1+$C2/10)+(($C2-1)*100)</f>
+        <v>132</v>
       </c>
       <c r="M2">
-        <f>($H2*100)*($K2/100+1)+($C2-1)*100</f>
-        <v>120</v>
+        <f>($H2*80+$P2)*($K2/100+1)*(1+$C2/10)+(($C2-1)*100)</f>
+        <v>105.60000000000001</v>
       </c>
       <c r="N2">
-        <f>($H2*100)*($K2/100+1)+($C2-1)*100</f>
-        <v>120</v>
-      </c>
-      <c r="O2">
-        <v>200</v>
-      </c>
-      <c r="P2" t="s">
+        <f>($H2*60+$P2)*($K2/100+1)*(1+$C2/10)+(($C2-1)*100)</f>
+        <v>79.2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1213,28 +1206,25 @@
         <v>20</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">($H3*200)*($K3/100+1)+($C3-1)*200</f>
-        <v>240</v>
+        <f t="shared" ref="L3:L66" si="0">($H3*100+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
+        <v>132</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:N35" si="1">($H3*100)*($K3/100+1)+($C3-1)*100</f>
-        <v>120</v>
+        <f t="shared" ref="M3:M66" si="1">($H3*80+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
+        <v>105.60000000000001</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="O3">
-        <v>200</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N3:N66" si="2">($H3*60+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
+        <v>79.2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1245,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1267,27 +1257,24 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="O4">
-        <v>200</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>79.2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1298,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1320,27 +1307,24 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="O5">
-        <v>200</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>79.2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1351,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1373,27 +1357,24 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="O6">
-        <v>200</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>79.2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1404,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
         <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1426,27 +1407,24 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="O7">
-        <v>200</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>79.2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1457,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1479,27 +1457,24 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="O8">
-        <v>200</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1510,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1532,27 +1507,24 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="O9">
-        <v>200</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1563,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1585,27 +1557,24 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="O10">
-        <v>200</v>
-      </c>
-      <c r="P10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1616,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1638,27 +1607,24 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="O11">
-        <v>200</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1669,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1691,27 +1657,24 @@
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="O12">
-        <v>200</v>
-      </c>
-      <c r="P12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1722,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1744,27 +1707,24 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="O13">
-        <v>200</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1775,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1797,27 +1757,24 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>369</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>335.20000000000005</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="O14">
-        <v>200</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>301.39999999999998</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1828,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,27 +1807,24 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>369</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>335.20000000000005</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="O15">
-        <v>200</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>301.39999999999998</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1881,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1903,27 +1857,24 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>369</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>335.20000000000005</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="O16">
-        <v>200</v>
-      </c>
-      <c r="P16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>301.39999999999998</v>
+      </c>
+      <c r="O16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1934,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1956,27 +1907,24 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>369</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>335.20000000000005</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="O17">
-        <v>200</v>
-      </c>
-      <c r="P17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>301.39999999999998</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1987,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2009,27 +1957,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>369</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>335.20000000000005</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="O18">
-        <v>200</v>
-      </c>
-      <c r="P18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>301.39999999999998</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2040,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2062,27 +2007,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>369</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>335.20000000000005</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="O19">
-        <v>200</v>
-      </c>
-      <c r="P19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>301.39999999999998</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2093,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2115,27 +2057,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O20">
-        <v>200</v>
-      </c>
-      <c r="P20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2146,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2168,27 +2107,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O21">
-        <v>200</v>
-      </c>
-      <c r="P21" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2199,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2221,27 +2157,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O22">
-        <v>200</v>
-      </c>
-      <c r="P22" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2252,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2274,27 +2207,24 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O23">
-        <v>200</v>
-      </c>
-      <c r="P23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2305,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2327,27 +2257,24 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O24">
-        <v>200</v>
-      </c>
-      <c r="P24" t="s">
-        <v>42</v>
-      </c>
-      <c r="R24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2358,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2380,27 +2307,24 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O25">
-        <v>200</v>
-      </c>
-      <c r="P25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2411,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2433,27 +2357,24 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="O26">
-        <v>200</v>
-      </c>
-      <c r="P26" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2464,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2486,27 +2407,24 @@
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="O27">
-        <v>200</v>
-      </c>
-      <c r="P27" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2517,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2539,27 +2457,24 @@
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="O28">
-        <v>200</v>
-      </c>
-      <c r="P28" t="s">
-        <v>46</v>
-      </c>
-      <c r="R28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>27</v>
       </c>
@@ -2570,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2592,27 +2507,24 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="O29">
-        <v>200</v>
-      </c>
-      <c r="P29" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>28</v>
       </c>
@@ -2623,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2645,27 +2557,24 @@
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="O30">
-        <v>200</v>
-      </c>
-      <c r="P30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>29</v>
       </c>
@@ -2676,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2698,27 +2607,24 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="O31">
-        <v>200</v>
-      </c>
-      <c r="P31" t="s">
-        <v>49</v>
-      </c>
-      <c r="R31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>30</v>
       </c>
@@ -2729,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2751,27 +2657,24 @@
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O32">
-        <v>200</v>
-      </c>
-      <c r="P32" t="s">
-        <v>84</v>
-      </c>
-      <c r="R32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>31</v>
       </c>
@@ -2782,13 +2685,13 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2804,27 +2707,24 @@
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="O33">
-        <v>200</v>
-      </c>
-      <c r="P33" t="s">
-        <v>85</v>
-      </c>
-      <c r="R33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>32</v>
       </c>
@@ -2835,13 +2735,13 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2857,27 +2757,24 @@
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:N34" si="2">($H34*100)*($K34/100+1)+($C34-1)*100</f>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>660</v>
-      </c>
-      <c r="O34">
-        <v>200</v>
-      </c>
-      <c r="P34" t="s">
-        <v>86</v>
-      </c>
-      <c r="R34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+        <v>653.6</v>
+      </c>
+      <c r="O34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>33</v>
       </c>
@@ -2888,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2910,27 +2807,24 @@
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>456.79999999999995</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="O35">
-        <v>200</v>
-      </c>
-      <c r="P35" t="s">
-        <v>90</v>
-      </c>
-      <c r="R35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>34</v>
       </c>
@@ -2941,13 +2835,13 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -2963,27 +2857,24 @@
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:N53" si="3">($H36*100)*($K36/100+1)+($C36-1)*100</f>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="O36">
-        <v>200</v>
-      </c>
-      <c r="P36" t="s">
-        <v>91</v>
-      </c>
-      <c r="R36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>35</v>
       </c>
@@ -2994,13 +2885,13 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3016,27 +2907,24 @@
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="O37">
-        <v>200</v>
-      </c>
-      <c r="P37" t="s">
-        <v>92</v>
-      </c>
-      <c r="R37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>36</v>
       </c>
@@ -3047,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3069,27 +2957,24 @@
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N38">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O38">
-        <v>200</v>
-      </c>
-      <c r="P38" t="s">
-        <v>96</v>
-      </c>
-      <c r="R38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>37</v>
       </c>
@@ -3100,13 +2985,13 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3122,27 +3007,24 @@
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="O39">
-        <v>200</v>
-      </c>
-      <c r="P39" t="s">
-        <v>97</v>
-      </c>
-      <c r="R39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>38</v>
       </c>
@@ -3153,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3175,27 +3057,24 @@
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N40">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="O40">
-        <v>200</v>
-      </c>
-      <c r="P40" t="s">
-        <v>98</v>
-      </c>
-      <c r="R40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>39</v>
       </c>
@@ -3206,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3228,27 +3107,24 @@
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O41">
-        <v>200</v>
-      </c>
-      <c r="P41" t="s">
-        <v>102</v>
-      </c>
-      <c r="R41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O41" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>40</v>
       </c>
@@ -3259,13 +3135,13 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3281,27 +3157,24 @@
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="O42">
-        <v>200</v>
-      </c>
-      <c r="P42" t="s">
-        <v>103</v>
-      </c>
-      <c r="R42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>41</v>
       </c>
@@ -3312,13 +3185,13 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3334,27 +3207,24 @@
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="O43">
-        <v>200</v>
-      </c>
-      <c r="P43" t="s">
-        <v>104</v>
-      </c>
-      <c r="R43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>42</v>
       </c>
@@ -3365,13 +3235,13 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3387,27 +3257,24 @@
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O44">
-        <v>200</v>
-      </c>
-      <c r="P44" t="s">
-        <v>108</v>
-      </c>
-      <c r="R44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>43</v>
       </c>
@@ -3418,13 +3285,13 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -3440,27 +3307,24 @@
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="O45">
-        <v>200</v>
-      </c>
-      <c r="P45" t="s">
-        <v>109</v>
-      </c>
-      <c r="R45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>44</v>
       </c>
@@ -3471,13 +3335,13 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -3493,27 +3357,24 @@
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N46">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="O46">
-        <v>200</v>
-      </c>
-      <c r="P46" t="s">
-        <v>110</v>
-      </c>
-      <c r="R46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O46" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>45</v>
       </c>
@@ -3524,13 +3385,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -3546,27 +3407,24 @@
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O47">
-        <v>200</v>
-      </c>
-      <c r="P47" t="s">
-        <v>111</v>
-      </c>
-      <c r="R47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O47" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>46</v>
       </c>
@@ -3577,13 +3435,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -3599,27 +3457,24 @@
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N48">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="O48">
-        <v>200</v>
-      </c>
-      <c r="P48" t="s">
-        <v>112</v>
-      </c>
-      <c r="R48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O48" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>47</v>
       </c>
@@ -3630,13 +3485,13 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3652,27 +3507,24 @@
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="O49">
-        <v>200</v>
-      </c>
-      <c r="P49" t="s">
-        <v>113</v>
-      </c>
-      <c r="R49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O49" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>48</v>
       </c>
@@ -3683,13 +3535,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3705,27 +3557,24 @@
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N50">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O50">
-        <v>200</v>
-      </c>
-      <c r="P50" t="s">
-        <v>117</v>
-      </c>
-      <c r="R50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O50" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>49</v>
       </c>
@@ -3736,13 +3585,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3758,27 +3607,24 @@
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N51">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="O51">
-        <v>200</v>
-      </c>
-      <c r="P51" t="s">
-        <v>118</v>
-      </c>
-      <c r="R51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>50</v>
       </c>
@@ -3789,13 +3635,13 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -3811,27 +3657,24 @@
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M52">
-        <f t="shared" ref="M52:N52" si="4">($H52*100)*($K52/100+1)+($C52-1)*100</f>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
-        <v>660</v>
-      </c>
-      <c r="O52">
-        <v>200</v>
-      </c>
-      <c r="P52" t="s">
-        <v>119</v>
-      </c>
-      <c r="R52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>51</v>
       </c>
@@ -3842,13 +3685,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3864,27 +3707,24 @@
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N53">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="O53">
-        <v>200</v>
-      </c>
-      <c r="P53" t="s">
-        <v>123</v>
-      </c>
-      <c r="R53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>52</v>
       </c>
@@ -3895,13 +3735,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3917,27 +3757,24 @@
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M54">
-        <f t="shared" ref="M54:N67" si="5">($H54*100)*($K54/100+1)+($C54-1)*100</f>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
-        <v>550</v>
-      </c>
-      <c r="O54">
-        <v>200</v>
-      </c>
-      <c r="P54" t="s">
-        <v>124</v>
-      </c>
-      <c r="R54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O54" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>53</v>
       </c>
@@ -3948,13 +3785,13 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -3970,27 +3807,24 @@
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M55">
-        <f t="shared" si="5"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N55">
-        <f t="shared" si="5"/>
-        <v>660</v>
-      </c>
-      <c r="O55">
-        <v>200</v>
-      </c>
-      <c r="P55" t="s">
-        <v>125</v>
-      </c>
-      <c r="R55" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O55" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>54</v>
       </c>
@@ -4001,13 +3835,13 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -4023,27 +3857,24 @@
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M56">
-        <f t="shared" si="5"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N56">
-        <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="O56">
-        <v>200</v>
-      </c>
-      <c r="P56" t="s">
-        <v>130</v>
-      </c>
-      <c r="R56" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>55</v>
       </c>
@@ -4054,13 +3885,13 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -4076,27 +3907,24 @@
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M57">
-        <f t="shared" si="5"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N57">
-        <f t="shared" si="5"/>
-        <v>550</v>
-      </c>
-      <c r="O57">
-        <v>200</v>
-      </c>
-      <c r="P57" t="s">
-        <v>129</v>
-      </c>
-      <c r="R57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O57" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>56</v>
       </c>
@@ -4107,13 +3935,13 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -4129,27 +3957,24 @@
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M58">
-        <f t="shared" si="5"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N58">
-        <f t="shared" si="5"/>
-        <v>660</v>
-      </c>
-      <c r="O58">
-        <v>200</v>
-      </c>
-      <c r="P58" t="s">
-        <v>131</v>
-      </c>
-      <c r="R58" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O58" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>57</v>
       </c>
@@ -4160,13 +3985,13 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -4182,27 +4007,24 @@
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M59">
-        <f t="shared" si="5"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N59">
-        <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="O59">
-        <v>200</v>
-      </c>
-      <c r="P59" t="s">
-        <v>135</v>
-      </c>
-      <c r="R59" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O59" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>58</v>
       </c>
@@ -4213,13 +4035,13 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -4235,27 +4057,24 @@
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M60">
-        <f t="shared" si="5"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N60">
-        <f t="shared" si="5"/>
-        <v>550</v>
-      </c>
-      <c r="O60">
-        <v>200</v>
-      </c>
-      <c r="P60" t="s">
-        <v>136</v>
-      </c>
-      <c r="R60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O60" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>59</v>
       </c>
@@ -4266,13 +4085,13 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -4288,27 +4107,24 @@
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M61">
-        <f t="shared" si="5"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N61">
-        <f t="shared" si="5"/>
-        <v>660</v>
-      </c>
-      <c r="O61">
-        <v>200</v>
-      </c>
-      <c r="P61" t="s">
-        <v>137</v>
-      </c>
-      <c r="R61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O61" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>60</v>
       </c>
@@ -4319,13 +4135,13 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -4341,27 +4157,24 @@
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M62">
-        <f t="shared" si="5"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N62">
-        <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="O62">
-        <v>200</v>
-      </c>
-      <c r="P62" t="s">
-        <v>141</v>
-      </c>
-      <c r="R62" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O62" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>61</v>
       </c>
@@ -4372,13 +4185,13 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -4394,27 +4207,24 @@
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M63">
-        <f t="shared" si="5"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N63">
-        <f t="shared" si="5"/>
-        <v>550</v>
-      </c>
-      <c r="O63">
-        <v>200</v>
-      </c>
-      <c r="P63" t="s">
-        <v>142</v>
-      </c>
-      <c r="R63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O63" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>62</v>
       </c>
@@ -4425,13 +4235,13 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -4447,27 +4257,24 @@
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>756</v>
       </c>
       <c r="M64">
-        <f t="shared" si="5"/>
-        <v>660</v>
+        <f t="shared" si="1"/>
+        <v>704.8</v>
       </c>
       <c r="N64">
-        <f t="shared" si="5"/>
-        <v>660</v>
-      </c>
-      <c r="O64">
-        <v>200</v>
-      </c>
-      <c r="P64" t="s">
-        <v>143</v>
-      </c>
-      <c r="R64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>653.6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>63</v>
       </c>
@@ -4478,13 +4285,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -4500,27 +4307,24 @@
       </c>
       <c r="L65">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>496</v>
       </c>
       <c r="M65">
-        <f t="shared" si="5"/>
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
       </c>
       <c r="N65">
-        <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="O65">
-        <v>200</v>
-      </c>
-      <c r="P65" t="s">
-        <v>147</v>
-      </c>
-      <c r="R65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>64</v>
       </c>
@@ -4531,13 +4335,13 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4553,27 +4357,24 @@
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="M66">
-        <f t="shared" si="5"/>
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="N66">
-        <f t="shared" si="5"/>
-        <v>550</v>
-      </c>
-      <c r="O66">
-        <v>200</v>
-      </c>
-      <c r="P66" t="s">
-        <v>148</v>
-      </c>
-      <c r="R66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="O66" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>65</v>
       </c>
@@ -4584,13 +4385,13 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -4605,25 +4406,22 @@
         <v>60</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67" si="6">($H67*200)*($K67/100+1)+($C67-1)*200</f>
-        <v>1320</v>
+        <f t="shared" ref="L67" si="3">($H67*100+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
+        <v>756</v>
       </c>
       <c r="M67">
-        <f t="shared" si="5"/>
-        <v>660</v>
+        <f t="shared" ref="M67" si="4">($H67*80+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
+        <v>704.8</v>
       </c>
       <c r="N67">
-        <f t="shared" si="5"/>
-        <v>660</v>
-      </c>
-      <c r="O67">
-        <v>200</v>
-      </c>
-      <c r="P67" t="s">
-        <v>149</v>
-      </c>
-      <c r="R67" t="s">
-        <v>170</v>
+        <f t="shared" ref="N67" si="5">($H67*60+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
+        <v>653.6</v>
+      </c>
+      <c r="O67" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89271DF0-2BD2-4E35-8021-C42DBF33DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF85A04-2D7E-444B-A33D-82D28735A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF85A04-2D7E-444B-A33D-82D28735A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357B37B-4B76-44DF-962C-96D3F2CB438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -705,18 +705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>첫 공격 시 랜덤한 두명의 적에게 60% 데미지로 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 공격 시 랜덤한 두명의 적에게 70% 데미지로 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 공격 시 랜덤한 두명의 적에게 80% 데미지로 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 시 타겟의 공격력이 자신의 공격력 보다 높을 경우 120% 데미지로 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,6 +722,18 @@
   </si>
   <si>
     <t>rarity</t>
+  </si>
+  <si>
+    <t>첫 공격 시 랜덤한 세명의 적에게 60% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 랜덤한 세명의 적에게 70% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 랜덤한 세명의 적에게 80% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1741,7 +1741,7 @@
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="Q47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
@@ -3471,7 +3471,7 @@
         <v>111</v>
       </c>
       <c r="Q48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3521,7 @@
         <v>112</v>
       </c>
       <c r="Q49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.3">
@@ -4171,7 +4171,7 @@
         <v>140</v>
       </c>
       <c r="Q62" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4221,7 @@
         <v>141</v>
       </c>
       <c r="Q63" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4271,7 @@
         <v>142</v>
       </c>
       <c r="Q64" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.3">

--- a/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/HeroData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357B37B-4B76-44DF-962C-96D3F2CB438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFD07D3-7002-480B-8585-8F6102F5DACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -733,6 +733,41 @@
   </si>
   <si>
     <t>첫 공격 시 랜덤한 세명의 적에게 80% 데미지로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정복자-키루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 왕-키루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제국 창시자-키루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyrus1</t>
+  </si>
+  <si>
+    <t>Cyrus2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyrus3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 모든 적에게 40% 데미지를 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 모든 적에게 50% 데미지를 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 공격 시 모든 적에게 30% 데미지를 입힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1176,6 +1211,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3">
+        <f>B2+1</f>
         <v>1</v>
       </c>
       <c r="C3">
@@ -1206,15 +1242,15 @@
         <v>20</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">($H3*100+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
+        <f t="shared" ref="L3:L68" si="0">($H3*100+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
         <v>132</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">($H3*80+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
+        <f t="shared" ref="M3:M68" si="1">($H3*80+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
         <v>105.60000000000001</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="2">($H3*60+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
+        <f t="shared" ref="N3:N68" si="2">($H3*60+$P3)*($K3/100+1)*(1+$C3/10)+(($C3-1)*100)</f>
         <v>79.2</v>
       </c>
       <c r="O3" t="s">
@@ -1226,6 +1262,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4">
+        <f t="shared" ref="B4:B67" si="3">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4">
@@ -1276,6 +1313,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C5">
@@ -1326,6 +1364,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C6">
@@ -1376,6 +1415,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C7">
@@ -1426,6 +1466,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C8">
@@ -1476,6 +1517,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C9">
@@ -1526,6 +1568,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C10">
@@ -1576,6 +1619,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C11">
@@ -1626,6 +1670,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C12">
@@ -1676,6 +1721,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C13">
@@ -1726,6 +1772,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C14">
@@ -1776,6 +1823,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C15">
@@ -1826,6 +1874,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C16">
@@ -1876,6 +1925,7 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C17">
@@ -1926,6 +1976,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C18">
@@ -1976,6 +2027,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C19">
@@ -2026,6 +2078,7 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C20">
@@ -2076,6 +2129,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C21">
@@ -2126,6 +2180,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C22">
@@ -2176,6 +2231,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C23">
@@ -2226,6 +2282,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C24">
@@ -2276,6 +2333,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C25">
@@ -2326,6 +2384,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C26">
@@ -2376,6 +2435,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C27">
@@ -2426,6 +2486,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C28">
@@ -2476,6 +2537,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C29">
@@ -2526,6 +2588,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C30">
@@ -2576,6 +2639,7 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C31">
@@ -2626,6 +2690,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C32">
@@ -2676,6 +2741,7 @@
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C33">
@@ -2726,6 +2792,7 @@
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="C34">
@@ -2776,6 +2843,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="C35">
@@ -2826,6 +2894,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="C36">
@@ -2876,6 +2945,7 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C37">
@@ -2926,6 +2996,7 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C38">
@@ -2976,6 +3047,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39">
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C39">
@@ -3026,6 +3098,7 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40">
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="C40">
@@ -3076,6 +3149,7 @@
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="C41">
@@ -3126,6 +3200,7 @@
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C42">
@@ -3176,6 +3251,7 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C43">
@@ -3226,6 +3302,7 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C44">
@@ -3276,6 +3353,7 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45">
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C45">
@@ -3326,6 +3404,7 @@
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="C46">
@@ -3376,6 +3455,7 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="C47">
@@ -3426,6 +3506,7 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="C48">
@@ -3476,6 +3557,7 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C49">
@@ -3526,6 +3608,7 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50">
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="C50">
@@ -3576,6 +3659,7 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="C51">
@@ -3626,6 +3710,7 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="C52">
@@ -3676,6 +3761,7 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53">
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C53">
@@ -3726,6 +3812,7 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54">
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="C54">
@@ -3776,6 +3863,7 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55">
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="C55">
@@ -3826,6 +3914,7 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C56">
@@ -3876,6 +3965,7 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="C57">
@@ -3926,6 +4016,7 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C58">
@@ -3976,6 +4067,7 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59">
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C59">
@@ -4026,6 +4118,7 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="C60">
@@ -4076,6 +4169,7 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61">
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C61">
@@ -4126,6 +4220,7 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C62">
@@ -4176,6 +4271,7 @@
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63">
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C63">
@@ -4226,6 +4322,7 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64">
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="C64">
@@ -4276,6 +4373,7 @@
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="C65">
@@ -4326,6 +4424,7 @@
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="C66">
@@ -4376,6 +4475,7 @@
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="C67">
@@ -4406,15 +4506,15 @@
         <v>60</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67" si="3">($H67*100+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
+        <f t="shared" ref="L67" si="4">($H67*100+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
         <v>756</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67" si="4">($H67*80+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
+        <f t="shared" ref="M67" si="5">($H67*80+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
         <v>704.8</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67" si="5">($H67*60+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
+        <f t="shared" ref="N67" si="6">($H67*60+$P67)*($K67/100+1)*(1+$C67/10)+(($C67-1)*100)</f>
         <v>653.6</v>
       </c>
       <c r="O67" t="s">
@@ -4422,6 +4522,159 @@
       </c>
       <c r="Q67" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <f t="shared" ref="B68:B70" si="7">B67+1</f>
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>40</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>496</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>456.79999999999995</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>417.6</v>
+      </c>
+      <c r="O68" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>50</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ref="L69:L70" si="8">($H69*100+$P69)*($K69/100+1)*(1+$C69/10)+(($C69-1)*100)</f>
+        <v>625</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ref="M69:M70" si="9">($H69*80+$P69)*($K69/100+1)*(1+$C69/10)+(($C69-1)*100)</f>
+        <v>580</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ref="N69:N70" si="10">($H69*60+$P69)*($K69/100+1)*(1+$C69/10)+(($C69-1)*100)</f>
+        <v>535</v>
+      </c>
+      <c r="O69" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>60</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="8"/>
+        <v>756</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>704.8</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="10"/>
+        <v>653.6</v>
+      </c>
+      <c r="O70" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
